--- a/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7532141096071041</v>
+        <v>0.7742726257972032</v>
       </c>
       <c r="C11" t="n">
-        <v>2.345281573475088</v>
+        <v>2.404217773689313</v>
       </c>
       <c r="D11" t="n">
-        <v>4.014429271354611</v>
+        <v>3.97939082096276</v>
       </c>
     </row>
     <row r="12">
